--- a/openpyxl/text.xlsx
+++ b/openpyxl/text.xlsx
@@ -27,7 +27,7 @@
     </font>
     <font>
       <i val="1"/>
-      <color rgb="FF000000"/>
+      <color rgb="00FF0000"/>
       <sz val="20"/>
     </font>
   </fonts>
